--- a/data/trans_orig/iP30A5_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/iP30A5_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB471635-36C9-4649-9B38-469EF2ED0278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8624B13-DBCE-4359-87D9-B7B88DFAEFDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{589A3030-D758-494B-9765-24C673353240}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{6FB71520-1042-4E6B-A811-D1509D9DB234}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,12 +65,132 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>12,74%</t>
   </si>
   <si>
@@ -98,9 +218,6 @@
     <t>17,1%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>87,26%</t>
   </si>
   <si>
@@ -128,64 +245,61 @@
     <t>88,8%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>67,41%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -243,120 +357,6 @@
   </si>
   <si>
     <t>87,02%</t>
-  </si>
-  <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>78,25%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>68,92%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>67,41%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
   </si>
   <si>
     <t>17,65%</t>
@@ -802,7 +802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7775E69C-3EF0-48E8-BDC5-F6DCECD7EBAF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FA94B2F-0CB9-4963-AD8E-ABC977BCD158}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -920,10 +920,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="D4" s="7">
-        <v>30952</v>
+        <v>5500</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -935,10 +935,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="I4" s="7">
-        <v>27386</v>
+        <v>6994</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -950,10 +950,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="N4" s="7">
-        <v>58337</v>
+        <v>12494</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -971,10 +971,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>284</v>
+        <v>10</v>
       </c>
       <c r="D5" s="7">
-        <v>211961</v>
+        <v>5897</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -986,10 +986,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>227</v>
+        <v>16</v>
       </c>
       <c r="I5" s="7">
-        <v>160531</v>
+        <v>9005</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1001,10 +1001,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>511</v>
+        <v>26</v>
       </c>
       <c r="N5" s="7">
-        <v>372493</v>
+        <v>14901</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1022,10 +1022,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>324</v>
+        <v>17</v>
       </c>
       <c r="D6" s="7">
-        <v>242913</v>
+        <v>11397</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1037,10 +1037,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>269</v>
+        <v>26</v>
       </c>
       <c r="I6" s="7">
-        <v>187917</v>
+        <v>15999</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1052,10 +1052,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>593</v>
+        <v>43</v>
       </c>
       <c r="N6" s="7">
-        <v>430830</v>
+        <v>27395</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1230,10 +1230,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D10" s="7">
-        <v>29796</v>
+        <v>30952</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1245,10 +1245,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="I10" s="7">
-        <v>25169</v>
+        <v>27386</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1260,10 +1260,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="N10" s="7">
-        <v>54965</v>
+        <v>58337</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1281,10 +1281,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>195</v>
+        <v>284</v>
       </c>
       <c r="D11" s="7">
-        <v>141660</v>
+        <v>211961</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1296,10 +1296,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="I11" s="7">
-        <v>143321</v>
+        <v>160531</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1311,10 +1311,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>395</v>
+        <v>511</v>
       </c>
       <c r="N11" s="7">
-        <v>284982</v>
+        <v>372493</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1332,10 +1332,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>232</v>
+        <v>324</v>
       </c>
       <c r="D12" s="7">
-        <v>171456</v>
+        <v>242913</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1347,10 +1347,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>235</v>
+        <v>269</v>
       </c>
       <c r="I12" s="7">
-        <v>168490</v>
+        <v>187917</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1362,10 +1362,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>467</v>
+        <v>593</v>
       </c>
       <c r="N12" s="7">
-        <v>339947</v>
+        <v>430830</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1385,10 +1385,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="D13" s="7">
-        <v>5500</v>
+        <v>46341</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1400,10 +1400,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="I13" s="7">
-        <v>6994</v>
+        <v>43702</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1415,10 +1415,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>17</v>
+        <v>126</v>
       </c>
       <c r="N13" s="7">
-        <v>12494</v>
+        <v>90042</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1436,10 +1436,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="D14" s="7">
-        <v>5897</v>
+        <v>124778</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1451,10 +1451,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>16</v>
+        <v>163</v>
       </c>
       <c r="I14" s="7">
-        <v>9005</v>
+        <v>122866</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1466,10 +1466,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>26</v>
+        <v>317</v>
       </c>
       <c r="N14" s="7">
-        <v>14901</v>
+        <v>247645</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1487,10 +1487,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>17</v>
+        <v>220</v>
       </c>
       <c r="D15" s="7">
-        <v>11397</v>
+        <v>171119</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1502,10 +1502,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>26</v>
+        <v>223</v>
       </c>
       <c r="I15" s="7">
-        <v>15999</v>
+        <v>166568</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1517,10 +1517,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>43</v>
+        <v>443</v>
       </c>
       <c r="N15" s="7">
-        <v>27395</v>
+        <v>337687</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1540,10 +1540,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="D16" s="7">
-        <v>46341</v>
+        <v>29796</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -1555,10 +1555,10 @@
         <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="I16" s="7">
-        <v>43702</v>
+        <v>25169</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -1570,10 +1570,10 @@
         <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="N16" s="7">
-        <v>90042</v>
+        <v>54965</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -1591,10 +1591,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>154</v>
+        <v>195</v>
       </c>
       <c r="D17" s="7">
-        <v>124778</v>
+        <v>141660</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -1606,10 +1606,10 @@
         <v>100</v>
       </c>
       <c r="H17" s="7">
-        <v>163</v>
+        <v>200</v>
       </c>
       <c r="I17" s="7">
-        <v>122866</v>
+        <v>143321</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>101</v>
@@ -1621,10 +1621,10 @@
         <v>103</v>
       </c>
       <c r="M17" s="7">
-        <v>317</v>
+        <v>395</v>
       </c>
       <c r="N17" s="7">
-        <v>247645</v>
+        <v>284982</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -1642,10 +1642,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="D18" s="7">
-        <v>171119</v>
+        <v>171456</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1657,10 +1657,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="I18" s="7">
-        <v>166568</v>
+        <v>168490</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1672,10 +1672,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>443</v>
+        <v>467</v>
       </c>
       <c r="N18" s="7">
-        <v>337687</v>
+        <v>339947</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/iP30A5_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/iP30A5_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8624B13-DBCE-4359-87D9-B7B88DFAEFDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EDCC7EF-4EFD-48D0-B541-E6C207129BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{6FB71520-1042-4E6B-A811-D1509D9DB234}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FB05B00C-7B3D-4016-B6F3-608A22CBF15A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
   <si>
     <t>Menores según si consumen pescados con regularidad (por lo menos 2-3 veces a la semana) en 2023 (Tasa respuesta: 96,61%)</t>
   </si>
@@ -68,6 +68,36 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -98,319 +128,292 @@
     <t>63,55%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>78,25%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>68,92%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
     <t>11,19%</t>
   </si>
   <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
   </si>
   <si>
     <t>22,03%</t>
   </si>
   <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
   </si>
   <si>
     <t>16,33%</t>
   </si>
   <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
   </si>
   <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
     <t>12,74%</t>
   </si>
   <si>
     <t>9,35%</t>
   </si>
   <si>
-    <t>16,83%</t>
+    <t>17,08%</t>
   </si>
   <si>
     <t>14,57%</t>
   </si>
   <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
   </si>
   <si>
     <t>13,54%</t>
   </si>
   <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
   </si>
   <si>
     <t>mas de 50</t>
   </si>
   <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
     <t>27,08%</t>
   </si>
   <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
   </si>
   <si>
     <t>26,24%</t>
   </si>
   <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
   </si>
   <si>
     <t>26,66%</t>
   </si>
   <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>67,41%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
     <t>17,38%</t>
   </si>
   <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
   </si>
   <si>
     <t>14,94%</t>
   </si>
   <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
   </si>
   <si>
     <t>16,17%</t>
   </si>
   <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
   </si>
   <si>
     <t>17,65%</t>
   </si>
   <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
   </si>
   <si>
     <t>19,61%</t>
   </si>
   <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
   </si>
   <si>
     <t>18,58%</t>
   </si>
   <si>
-    <t>16,68%</t>
+    <t>16,76%</t>
   </si>
   <si>
     <t>20,52%</t>
   </si>
   <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>79,62%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -421,7 +424,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -517,39 +520,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -601,7 +604,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -712,13 +715,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -727,6 +723,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -791,19 +794,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FA94B2F-0CB9-4963-AD8E-ABC977BCD158}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F78634B-61E6-4AC4-AB3B-C7C717FA3419}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -920,10 +943,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D4" s="7">
-        <v>5500</v>
+        <v>5897</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -935,10 +958,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I4" s="7">
-        <v>6994</v>
+        <v>9005</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -950,10 +973,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="N4" s="7">
-        <v>12494</v>
+        <v>14901</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -971,10 +994,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D5" s="7">
-        <v>5897</v>
+        <v>5500</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -986,10 +1009,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I5" s="7">
-        <v>9005</v>
+        <v>6994</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1001,10 +1024,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="N5" s="7">
-        <v>14901</v>
+        <v>12494</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1075,10 +1098,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="D7" s="7">
-        <v>12578</v>
+        <v>99870</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1090,10 +1113,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="I7" s="7">
-        <v>22387</v>
+        <v>79248</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1105,10 +1128,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>52</v>
+        <v>257</v>
       </c>
       <c r="N7" s="7">
-        <v>34964</v>
+        <v>179119</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1126,10 +1149,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>129</v>
+        <v>18</v>
       </c>
       <c r="D8" s="7">
-        <v>99870</v>
+        <v>12578</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1141,10 +1164,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>128</v>
+        <v>34</v>
       </c>
       <c r="I8" s="7">
-        <v>79248</v>
+        <v>22387</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1156,10 +1179,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>257</v>
+        <v>52</v>
       </c>
       <c r="N8" s="7">
-        <v>179119</v>
+        <v>34964</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1230,10 +1253,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>40</v>
+        <v>284</v>
       </c>
       <c r="D10" s="7">
-        <v>30952</v>
+        <v>211961</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1245,10 +1268,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>42</v>
+        <v>227</v>
       </c>
       <c r="I10" s="7">
-        <v>27386</v>
+        <v>160531</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1260,10 +1283,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>82</v>
+        <v>511</v>
       </c>
       <c r="N10" s="7">
-        <v>58337</v>
+        <v>372493</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1281,10 +1304,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>284</v>
+        <v>40</v>
       </c>
       <c r="D11" s="7">
-        <v>211961</v>
+        <v>30952</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1296,10 +1319,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>227</v>
+        <v>42</v>
       </c>
       <c r="I11" s="7">
-        <v>160531</v>
+        <v>27386</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1311,10 +1334,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>511</v>
+        <v>82</v>
       </c>
       <c r="N11" s="7">
-        <v>372493</v>
+        <v>58337</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1385,10 +1408,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>66</v>
+        <v>154</v>
       </c>
       <c r="D13" s="7">
-        <v>46341</v>
+        <v>124778</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1400,10 +1423,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>60</v>
+        <v>163</v>
       </c>
       <c r="I13" s="7">
-        <v>43702</v>
+        <v>122866</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1415,10 +1438,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>126</v>
+        <v>317</v>
       </c>
       <c r="N13" s="7">
-        <v>90042</v>
+        <v>247645</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1436,10 +1459,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>154</v>
+        <v>66</v>
       </c>
       <c r="D14" s="7">
-        <v>124778</v>
+        <v>46341</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1451,10 +1474,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>163</v>
+        <v>60</v>
       </c>
       <c r="I14" s="7">
-        <v>122866</v>
+        <v>43702</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1466,10 +1489,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>317</v>
+        <v>126</v>
       </c>
       <c r="N14" s="7">
-        <v>247645</v>
+        <v>90042</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1540,10 +1563,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>37</v>
+        <v>195</v>
       </c>
       <c r="D16" s="7">
-        <v>29796</v>
+        <v>141660</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -1555,10 +1578,10 @@
         <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>35</v>
+        <v>200</v>
       </c>
       <c r="I16" s="7">
-        <v>25169</v>
+        <v>143321</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -1570,10 +1593,10 @@
         <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>72</v>
+        <v>395</v>
       </c>
       <c r="N16" s="7">
-        <v>54965</v>
+        <v>284982</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -1591,10 +1614,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>195</v>
+        <v>37</v>
       </c>
       <c r="D17" s="7">
-        <v>141660</v>
+        <v>29796</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -1606,10 +1629,10 @@
         <v>100</v>
       </c>
       <c r="H17" s="7">
-        <v>200</v>
+        <v>35</v>
       </c>
       <c r="I17" s="7">
-        <v>143321</v>
+        <v>25169</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>101</v>
@@ -1621,10 +1644,10 @@
         <v>103</v>
       </c>
       <c r="M17" s="7">
-        <v>395</v>
+        <v>72</v>
       </c>
       <c r="N17" s="7">
-        <v>284982</v>
+        <v>54965</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -1695,10 +1718,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>168</v>
+        <v>772</v>
       </c>
       <c r="D19" s="7">
-        <v>125166</v>
+        <v>584168</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>107</v>
@@ -1710,10 +1733,10 @@
         <v>109</v>
       </c>
       <c r="H19" s="7">
-        <v>181</v>
+        <v>734</v>
       </c>
       <c r="I19" s="7">
-        <v>125637</v>
+        <v>514972</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>110</v>
@@ -1725,10 +1748,10 @@
         <v>112</v>
       </c>
       <c r="M19" s="7">
-        <v>349</v>
+        <v>1506</v>
       </c>
       <c r="N19" s="7">
-        <v>250802</v>
+        <v>1099140</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>113</v>
@@ -1746,10 +1769,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>772</v>
+        <v>168</v>
       </c>
       <c r="D20" s="7">
-        <v>584168</v>
+        <v>125165</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>116</v>
@@ -1761,10 +1784,10 @@
         <v>118</v>
       </c>
       <c r="H20" s="7">
-        <v>734</v>
+        <v>181</v>
       </c>
       <c r="I20" s="7">
-        <v>514972</v>
+        <v>125637</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>119</v>
@@ -1776,10 +1799,10 @@
         <v>121</v>
       </c>
       <c r="M20" s="7">
-        <v>1506</v>
+        <v>349</v>
       </c>
       <c r="N20" s="7">
-        <v>1099140</v>
+        <v>250802</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>122</v>
@@ -1800,7 +1823,7 @@
         <v>940</v>
       </c>
       <c r="D21" s="7">
-        <v>709334</v>
+        <v>709333</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1840,6 +1863,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
